--- a/data/trans_orig/P21D_5_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002288974292006969</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002004284905160814</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002138394194122303</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>287463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284410</v>
+        <v>284741</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>288123</v>
@@ -821,7 +821,7 @@
         <v>0.997711025707993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9871140575670874</v>
+        <v>0.9882617972349587</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>322861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319667</v>
+        <v>320181</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>323509</v>
@@ -842,7 +842,7 @@
         <v>0.9979957150948392</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9881234231445977</v>
+        <v>0.9897114627996345</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>610324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607198</v>
+        <v>607605</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>611632</v>
@@ -863,7 +863,7 @@
         <v>0.9978616058058777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9927497717545822</v>
+        <v>0.9934152904358705</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -971,19 +971,19 @@
         <v>2886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7270</v>
+        <v>7258</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005739384511557998</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001237494707557448</v>
+        <v>0.001387974128325771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01445904208075052</v>
+        <v>0.01443560064851839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -992,19 +992,19 @@
         <v>2886</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7166</v>
+        <v>7143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002965821571624306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006387185283128446</v>
+        <v>0.000708616290126235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007365134279172941</v>
+        <v>0.007341546273729183</v>
       </c>
     </row>
     <row r="8">
@@ -1034,19 +1034,19 @@
         <v>499916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495532</v>
+        <v>495544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502180</v>
+        <v>502104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.994260615488442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9855409579192489</v>
+        <v>0.9855643993514817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9987625052924425</v>
+        <v>0.9986120258716743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1126</v>
@@ -1055,19 +1055,19 @@
         <v>970124</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965844</v>
+        <v>965867</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>972389</v>
+        <v>972321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9970341784283757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.992634865720827</v>
+        <v>0.9926584537262708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993612814716871</v>
+        <v>0.9992913837098738</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5167</v>
+        <v>5660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002649602523679081</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01376229667128646</v>
+        <v>0.01507712330651006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5977</v>
+        <v>6056</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001320185966907542</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007931934417014994</v>
+        <v>0.0080380085366729</v>
       </c>
     </row>
     <row r="11">
@@ -1222,16 +1222,16 @@
         <v>374433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>370261</v>
+        <v>369768</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>375428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.997350397476321</v>
+        <v>0.9973503974763207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9862377033287136</v>
+        <v>0.9849228766934902</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>752485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>747503</v>
+        <v>747424</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>753480</v>
@@ -1265,7 +1265,7 @@
         <v>0.9986798140330925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9920680655829849</v>
+        <v>0.9919619914633272</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00399333014459445</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1381,19 +1381,19 @@
         <v>3145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8219</v>
+        <v>6952</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006418256435882522</v>
+        <v>0.006418256435882523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002199683880781705</v>
+        <v>0.00212907297930645</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01677272831304958</v>
+        <v>0.01418666230330219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1402,19 +1402,19 @@
         <v>4876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1925</v>
+        <v>2133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10221</v>
+        <v>10784</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005280180993995291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002085227543191159</v>
+        <v>0.00231004826034201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0110691331461377</v>
+        <v>0.01167865619232211</v>
       </c>
     </row>
     <row r="14">
@@ -1431,16 +1431,16 @@
         <v>431628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427639</v>
+        <v>426925</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>433359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9960066698554054</v>
+        <v>0.9960066698554055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9868005688371314</v>
+        <v>0.9851529111235729</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1452,19 +1452,19 @@
         <v>486865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>481791</v>
+        <v>483058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488932</v>
+        <v>488967</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9935817435641173</v>
+        <v>0.9935817435641174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9832272716869525</v>
+        <v>0.9858133376966981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9978003161192184</v>
+        <v>0.9978709270206936</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1084</v>
@@ -1473,19 +1473,19 @@
         <v>918494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913149</v>
+        <v>912586</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>921445</v>
+        <v>921237</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9947198190060048</v>
+        <v>0.9947198190060047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9889308668538618</v>
+        <v>0.9883213438076783</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979147724568086</v>
+        <v>0.9976899517396581</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1598,19 +1598,19 @@
         <v>6679</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1619,19 +1619,19 @@
         <v>10064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>1563733</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1558388</v>
+        <v>1558778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1566105</v>
+        <v>1566302</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9978401195665715</v>
+        <v>0.9978401195665714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9944294143777166</v>
+        <v>0.9946778567057836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9993533310008407</v>
+        <v>0.9994794784646037</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2362</v>
@@ -1669,19 +1669,19 @@
         <v>1687695</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1682693</v>
+        <v>1681989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1691090</v>
+        <v>1691033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9960580194642505</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9931062128347524</v>
+        <v>0.9926903471763651</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9980620720070468</v>
+        <v>0.9980281325270685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3817</v>
@@ -1690,19 +1690,19 @@
         <v>3251428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3244162</v>
+        <v>3244196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3255849</v>
+        <v>3255387</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9969143027030722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9946864944060305</v>
+        <v>0.9946967556363309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9982698483772365</v>
+        <v>0.9981280973344896</v>
       </c>
     </row>
     <row r="18">
